--- a/leetcode-notes/order.xlsx
+++ b/leetcode-notes/order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tao Victor Sun\Desktop\leetcode-notes\leetcode-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AEF3C-4B8E-4A81-B3CF-A3EC5D8A52F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D05A56-2ECA-4C74-8A5F-EE91F1D6EA5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC93D4B8-C79A-4A8B-969E-1644AB93DCA4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="577">
   <si>
     <t>#</t>
   </si>
@@ -1766,6 +1766,27 @@
   </si>
   <si>
     <t>lc 230 notice the follow up</t>
+  </si>
+  <si>
+    <t>lc 280/324 wiggle sort, follow up</t>
+  </si>
+  <si>
+    <t>lc 414 very tiny details</t>
+  </si>
+  <si>
+    <t>lc 703</t>
+  </si>
+  <si>
+    <t>still need to practice more … comlexity analysis</t>
+  </si>
+  <si>
+    <t>consider the difference of pre-order and post-order</t>
+  </si>
+  <si>
+    <t>practice more!</t>
+  </si>
+  <si>
+    <t>lc 8</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1950,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1991,6 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2308,16 +2330,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6E4438-A3B4-409C-900B-4E92188EE487}">
   <dimension ref="A1:I302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="50.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
     <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="38.21875" customWidth="1"/>
@@ -2707,11 +2730,17 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="9">
         <v>65</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2729,6 +2758,9 @@
       <c r="B28" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
@@ -2739,7 +2771,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="9">
         <v>543</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -2747,11 +2779,14 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="9">
         <v>282</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2762,15 +2797,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
         <v>215</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="E33" t="s">
+        <v>571</v>
+      </c>
+      <c r="F33" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1060</v>
       </c>
@@ -2778,7 +2825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2786,7 +2833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>636</v>
       </c>
@@ -2794,7 +2841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>56</v>
       </c>
@@ -2802,7 +2849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>76</v>
       </c>
@@ -2810,7 +2857,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>987</v>
       </c>
@@ -2818,15 +2865,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
         <v>88</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>236</v>
       </c>
@@ -2834,7 +2881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>140</v>
       </c>
@@ -2842,7 +2889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>498</v>
       </c>
@@ -2850,7 +2897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>785</v>
       </c>
@@ -2858,7 +2905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>270</v>
       </c>
@@ -2866,7 +2913,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>689</v>
       </c>
@@ -2874,7 +2921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>33</v>
       </c>
@@ -2882,7 +2929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>528</v>
       </c>
@@ -2931,7 +2978,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="9">
         <v>278</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -8459,24 +8506,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>496</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>277</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -8489,10 +8536,10 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>84</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>307</v>
       </c>
       <c r="C3" t="s">
